--- a/inst/extdata/CopyOfData/ulrich52.xlsx
+++ b/inst/extdata/CopyOfData/ulrich52.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Documents/woodcarb/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="26280" windowHeight="12640" tabRatio="500"/>
+    <workbookView xWindow="-300" yWindow="2040" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +18,195 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Table 52.-Particleboard and medium density fiberboard production, imports, exports, and consumption, 1950-87 </t>
+  </si>
+  <si>
+    <t>[3/4.inch bsis]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Year</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <r>
+      <t>Imports</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Particleboard</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>Per capita</t>
+  </si>
+  <si>
+    <t>fiberboard</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>May contain significant volumes of waferboard</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE: Data may not add to totals because of rounding.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and oriented strand board, products currently</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tabulated as particleboard in the U.S. Department</t>
+    </r>
+  </si>
+  <si>
+    <t>Sources: U.S. Department of Commerce, Bureau of the Census</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>of Commerce, Bureau of the Census import data.</t>
+    </r>
+  </si>
+  <si>
+    <t>(45, 51, 52); National Particleboard Association (17).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Forest Service estimates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Less than 0.5 square foot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Less than 500,000 square feet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preliminary.</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,6 +225,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,11 +274,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -99,6 +311,59 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -157,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -377,889 +642,1586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11">
+        <v>1950</v>
+      </c>
+      <c r="B11" s="1">
         <v>221</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C11" s="2">
         <v>21</v>
       </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>21</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H11" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11">
+        <v>1951</v>
+      </c>
+      <c r="B12" s="1">
         <v>230</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C12" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>30</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H12" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11">
+        <v>1952</v>
+      </c>
+      <c r="B13" s="1">
         <v>233</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C13" s="2">
         <v>33</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>33</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H13" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="11">
+        <v>1953</v>
+      </c>
+      <c r="B14" s="1">
         <v>242</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C14" s="2">
         <v>42</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>42</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H14" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11">
+        <v>1954</v>
+      </c>
+      <c r="B15" s="1">
         <v>248</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C15" s="2">
         <v>48</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>48</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H15" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="11">
+        <v>1955</v>
+      </c>
+      <c r="B16" s="1">
         <v>270</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C16" s="2">
         <v>70</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>70</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H16" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11">
+        <v>1956</v>
+      </c>
+      <c r="B17" s="1">
         <v>2111</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C17" s="2">
         <v>111</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <v>111</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11">
+        <v>1957</v>
+      </c>
+      <c r="B18" s="2">
         <v>183</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C18" s="2">
         <v>183</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>183</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11">
+        <v>1958</v>
+      </c>
+      <c r="B19" s="1">
         <v>2250</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C19" s="2">
         <v>250</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
         <v>250</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11">
+        <v>1959</v>
+      </c>
+      <c r="B20" s="2">
         <v>296</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C20" s="2">
         <v>296</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
         <v>296</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11">
+        <v>1960</v>
+      </c>
+      <c r="B21" s="2">
         <v>268</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C21" s="2">
         <v>268</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <v>268</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="11">
+        <v>1961</v>
+      </c>
+      <c r="B22" s="2">
         <v>326</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C22" s="2">
         <v>326</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <v>326</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11">
+        <v>1962</v>
+      </c>
+      <c r="B23" s="2">
         <v>408</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C23" s="2">
         <v>408</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
         <v>408</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="11">
+        <v>1963</v>
+      </c>
+      <c r="B24" s="2">
         <v>496</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C24" s="2">
         <v>496</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
         <v>497</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11">
+        <v>1964</v>
+      </c>
+      <c r="B25" s="2">
         <v>638</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C25" s="2">
         <v>638</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
         <v>640</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11">
+        <v>1965</v>
+      </c>
+      <c r="B26" s="2">
         <v>803</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C26" s="2">
         <v>803</v>
       </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F26" s="4">
         <v>-4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G26" s="2">
         <v>807</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H26" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11">
+        <v>1966</v>
+      </c>
+      <c r="B27" s="2">
         <v>997</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C27" s="2">
         <v>997</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F27" s="4">
         <v>-4</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G27" s="2">
         <v>998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11">
+        <v>1967</v>
+      </c>
+      <c r="B28" s="5">
         <v>1115</v>
       </c>
-      <c r="B18" s="5">
+      <c r="C28" s="5">
         <v>1115</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G28" s="5">
         <v>1114</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H28" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11">
+        <v>1968</v>
+      </c>
+      <c r="B29" s="5">
         <v>1425</v>
       </c>
-      <c r="B19" s="5">
+      <c r="C29" s="5">
         <v>1425</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F29" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G29" s="5">
         <v>1420</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H29" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11">
+        <v>1969</v>
+      </c>
+      <c r="B30" s="5">
         <v>1716</v>
       </c>
-      <c r="B20" s="5">
+      <c r="C30" s="5">
         <v>1716</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F30" s="2">
         <v>14</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G30" s="5">
         <v>1714</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H30" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="11">
+        <v>1970</v>
+      </c>
+      <c r="B31" s="5">
         <v>1764</v>
       </c>
-      <c r="B21" s="5">
+      <c r="C31" s="5">
         <v>1764</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F31" s="2">
         <v>10</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G31" s="5">
         <v>1757</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H31" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="11">
+        <v>1971</v>
+      </c>
+      <c r="B32" s="5">
         <v>2394</v>
       </c>
-      <c r="B22" s="5">
+      <c r="C32" s="5">
         <v>2394</v>
       </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
         <v>8</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F32" s="2">
         <v>20</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G32" s="5">
         <v>2382</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H32" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="11">
+        <v>1972</v>
+      </c>
+      <c r="B33" s="5">
         <v>3117</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C33" s="5">
         <v>3117</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
         <v>14</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F33" s="2">
         <v>45</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G33" s="5">
         <v>3086</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H33" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11">
+        <v>1973</v>
+      </c>
+      <c r="B34" s="5">
         <v>3494</v>
       </c>
-      <c r="B24" s="5">
+      <c r="C34" s="5">
         <v>3494</v>
       </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
         <v>17</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F34" s="2">
         <v>77</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G34" s="5">
         <v>3434</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H34" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="11">
+        <v>1974</v>
+      </c>
+      <c r="B35" s="5">
         <v>3104</v>
       </c>
-      <c r="B25" s="5">
+      <c r="C35" s="5">
         <v>3104</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
         <v>7</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F35" s="2">
         <v>113</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G35" s="5">
         <v>2998</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H35" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="11">
+        <v>1975</v>
+      </c>
+      <c r="B36" s="5">
         <v>2754</v>
       </c>
-      <c r="B26" s="5">
+      <c r="C36" s="5">
         <v>2539</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D36" s="2">
         <v>215</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E36" s="2">
         <v>16</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F36" s="2">
         <v>84</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G36" s="5">
         <v>2686</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H36" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="11">
+        <v>1976</v>
+      </c>
+      <c r="B37" s="5">
         <v>3482</v>
       </c>
-      <c r="B27" s="5">
+      <c r="C37" s="5">
         <v>3202</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D37" s="2">
         <v>280</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E37" s="2">
         <v>60</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F37" s="2">
         <v>80</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G37" s="5">
         <v>3463</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H37" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="11">
+        <v>1977</v>
+      </c>
+      <c r="B38" s="5">
         <v>4034</v>
       </c>
-      <c r="B28" s="5">
+      <c r="C38" s="5">
         <v>3593</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D38" s="2">
         <v>441</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E38" s="2">
         <v>158</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F38" s="2">
         <v>63</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G38" s="5">
         <v>4130</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H38" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="11">
+        <v>1978</v>
+      </c>
+      <c r="B39" s="5">
         <v>4405</v>
       </c>
-      <c r="B29" s="5">
+      <c r="C39" s="5">
         <v>3866</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D39" s="2">
         <v>539</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E39" s="2">
         <v>193</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F39" s="2">
         <v>61</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G39" s="5">
         <v>4537</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H39" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="11">
+        <v>1979</v>
+      </c>
+      <c r="B40" s="5">
         <v>4070</v>
       </c>
-      <c r="B30" s="5">
+      <c r="C40" s="5">
         <v>3536</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D40" s="2">
         <v>534</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E40" s="2">
         <v>221</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F40" s="2">
         <v>84</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G40" s="5">
         <v>4207</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H40" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="11">
+        <v>1980</v>
+      </c>
+      <c r="B41" s="5">
         <v>3542</v>
       </c>
-      <c r="B31" s="5">
+      <c r="C41" s="5">
         <v>3029</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D41" s="2">
         <v>513</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E41" s="2">
         <v>264</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F41" s="2">
         <v>106</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G41" s="5">
         <v>3700</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H41" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="11">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="5">
         <v>3460</v>
       </c>
-      <c r="B32" s="5">
+      <c r="C42" s="5">
         <v>2930</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D42" s="2">
         <v>530</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E42" s="2">
         <v>254</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F42" s="2">
         <v>117</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G42" s="5">
         <v>3598</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H42" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="11">
+        <v>1982</v>
+      </c>
+      <c r="B43" s="5">
         <v>2933</v>
       </c>
-      <c r="B33" s="5">
+      <c r="C43" s="5">
         <v>2470</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D43" s="2">
         <v>462</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E43" s="2">
         <v>254</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F43" s="2">
         <v>69</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G43" s="5">
         <v>3118</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H43" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="11">
+        <v>1983</v>
+      </c>
+      <c r="B44" s="5">
         <v>3681</v>
       </c>
-      <c r="B34" s="5">
+      <c r="C44" s="5">
         <v>3065</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D44" s="2">
         <v>616</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E44" s="2">
         <v>354</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F44" s="2">
         <v>79</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G44" s="5">
         <v>3956</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H44" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="11">
+        <v>1984</v>
+      </c>
+      <c r="B45" s="5">
         <v>4010</v>
       </c>
-      <c r="B35" s="5">
+      <c r="C45" s="5">
         <v>3348</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D45" s="2">
         <v>662</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E45" s="2">
         <v>553</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F45" s="2">
         <v>90</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G45" s="5">
         <v>4473</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H45" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="11">
+        <v>1985</v>
+      </c>
+      <c r="B46" s="5">
         <v>4103</v>
       </c>
-      <c r="B36" s="5">
+      <c r="C46" s="5">
         <v>3402</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D46" s="2">
         <v>701</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E46" s="2">
         <v>603</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F46" s="2">
         <v>99</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G46" s="5">
         <v>4607</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H46" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="11">
+        <v>1986</v>
+      </c>
+      <c r="B47" s="5">
         <v>4499</v>
       </c>
-      <c r="B37" s="5">
+      <c r="C47" s="5">
         <v>3674</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D47" s="2">
         <v>825</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E47" s="2">
         <v>556</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F47" s="2">
         <v>143</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G47" s="5">
         <v>4912</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H47" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="19">
+        <v>1987</v>
+      </c>
+      <c r="B48" s="6">
         <v>4726</v>
       </c>
-      <c r="B38" s="6">
+      <c r="C48" s="6">
         <v>3801</v>
       </c>
-      <c r="C38" s="7">
+      <c r="D48" s="7">
         <v>925</v>
       </c>
-      <c r="D38" s="7">
+      <c r="E48" s="7">
         <v>607</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F48" s="7">
         <v>189</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G48" s="6">
         <v>5143</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H48" s="7">
         <v>21</v>
       </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="11"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="A51:D51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>